--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DQAC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RESEARCH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="exempted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="DQAC"/>
+    <sheet r:id="rId2" sheetId="2" name="RESEARCH"/>
+    <sheet r:id="rId3" sheetId="3" name="exempted"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t>2022-2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,81 +55,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -131,10 +82,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -172,69 +123,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -258,54 +211,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -315,7 +267,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -324,7 +276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -333,7 +285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,10 +293,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -373,7 +325,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -386,13 +338,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,55 +361,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="DQAC"/>
@@ -16,23 +16,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>2022-2023</t>
   </si>
+  <si>
+    <t>Conference Presentation</t>
+  </si>
+  <si>
+    <t>Journal Publication-Non Indexed</t>
+  </si>
+  <si>
+    <t>fdp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +58,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -55,12 +77,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -365,42 +396,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -1,71 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="DQAC"/>
-    <sheet r:id="rId2" sheetId="2" name="RESEARCH"/>
-    <sheet r:id="rId3" sheetId="3" name="exempted"/>
+    <sheet name="DQAC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RESEARCH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="exempted" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>Conference Presentation</t>
-  </si>
-  <si>
-    <t>Journal Publication-Non Indexed</t>
-  </si>
-  <si>
-    <t>fdp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,34 +48,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -113,10 +131,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -154,71 +172,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -242,53 +258,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -298,7 +315,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -307,7 +324,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -316,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -324,10 +341,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -356,7 +373,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -369,12 +386,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -392,89 +410,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fdp</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Conference Presentation</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Journal Publication-Non Indexed</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Readme.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20220915_achs_rv_1.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -423,7 +423,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +464,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -48,8 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +431,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>2022-2023</t>
         </is>
@@ -469,7 +472,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>2022-2023</t>
         </is>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -426,8 +426,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,7 +467,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="31" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -1,36 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samuel\6CME\Project_DriveReader\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62145D7E-7EBA-4150-ACC9-1351E51D7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DQAC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RESEARCH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="exempted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DQAC" sheetId="1" r:id="rId1"/>
+    <sheet name="RESEARCH" sheetId="2" r:id="rId2"/>
+    <sheet name="exempted" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>fdp</t>
+  </si>
+  <si>
+    <t>Conference Presentation</t>
+  </si>
+  <si>
+    <t>Journal Publication-Non Indexed</t>
+  </si>
+  <si>
+    <t>READ_ME.xlsx</t>
+  </si>
+  <si>
+    <t>CUCS - Research</t>
+  </si>
+  <si>
+    <t>Readme.txt</t>
+  </si>
+  <si>
+    <t>20220915_achs_rv_1.pdf</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,84 +81,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,35 +388,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>fdp</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
     </row>
@@ -454,45 +420,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Conference Presentation</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Journal Publication-Non Indexed</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -505,53 +462,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>READ_ME.xlsx</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CUCS - Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Readme.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CUCS - Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>20220915_achs_rv_1.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CUCS - Research</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -1,69 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samuel\6CME\Project_DriveReader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62145D7E-7EBA-4150-ACC9-1351E51D7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DQAC" sheetId="1" r:id="rId1"/>
-    <sheet name="RESEARCH" sheetId="2" r:id="rId2"/>
-    <sheet name="exempted" sheetId="3" r:id="rId3"/>
+    <sheet name="DQAC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RESEARCH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="exempted" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>fdp</t>
-  </si>
-  <si>
-    <t>Conference Presentation</t>
-  </si>
-  <si>
-    <t>Journal Publication-Non Indexed</t>
-  </si>
-  <si>
-    <t>READ_ME.xlsx</t>
-  </si>
-  <si>
-    <t>CUCS - Research</t>
-  </si>
-  <si>
-    <t>Readme.txt</t>
-  </si>
-  <si>
-    <t>20220915_achs_rv_1.pdf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,25 +49,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,109 +416,543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSIFICATION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fdp</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSIFICATION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Conference Presentation</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Journal Publication-Non Indexed</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="56" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Folder name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Untitled document</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CUCS - Alumni</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>README.TXT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CUCS - Alumni</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CUCS - Alumni</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Read Me</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CUCS - Curriculum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Read Me.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CUCS - Curriculum</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CUCS - Curriculum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Readme.txt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CUCS - Events</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CUCS - Events</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CUCS - All campus faculty as on 23 02 06.xls</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CUCS - Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Anita HB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CUCS - Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rohini V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CUCS - Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ashok Immanuel V</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CUCS - Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sankara College - MoU edited 23 Jun.docx</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MOU with CHRIST University - Banglore.doc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sankara College - MoU.docx</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sankara College - MoU.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sankara College - Profile.docx</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MOU - Internship - Template.docx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MOU-Maistering India.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Infosys - DPA_Agreement_Schools_Collges_NGOs_Ver2.1.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Infosys - DPA_Agreement_Schools_Collges_NGOs_Ver2.1.docx</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MOU - Idea Elan.pages</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MOU - Internship - Apar Technologies - Bangalore.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MoU Kritter -- Internnship.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MoU Code Cognitive - Internship.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MoU Pirai Infotech - Internship.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MoU - Internship - AICTE guidelines.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CUCS - MoU_Consultancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>READ_ME.xlsx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Readme.txt</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20220915_achs_rv_1.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CUCS - Research</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -19,13 +19,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +54,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -430,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DQAC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CDC" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RESEARCH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="exempted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TLEC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DQAC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="exempted" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fdp</t>
+          <t>Course plan</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,31 +517,193 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conference Presentation</t>
+          <t>Mou s</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
+          <t>Conference Presentation</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Book Chapter</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Journal Publication-Indexed</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Seminar Organized</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mou s</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mou s</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conference Session Chair</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conference Keynote</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conference Attended</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conference Publication</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Book Chapter</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Patent Filed</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Journal Publication-Indexed</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Seminar Organized</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Journal Publication-Non Indexed</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conference Presentation</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -551,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +723,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="56" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSIFICATION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Faculty achievements</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSIFICATION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fdp</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="44" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -614,7 +894,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Read Me</t>
+          <t>2023_01_18_COPL_SS_03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,7 +906,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Read Me.txt</t>
+          <t>2022_07_12_COPL_SS_01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -638,7 +918,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>READ_ME.xlsx</t>
+          <t>Read Me</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -650,12 +930,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Readme.txt</t>
+          <t>Read Me.txt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUCS - Events</t>
+          <t>CUCS - Curriculum</t>
         </is>
       </c>
     </row>
@@ -667,38 +947,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUCS - Events</t>
+          <t>CUCS - Curriculum</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUCS - All campus faculty as on 23 02 06.xls</t>
+          <t>Readme.txt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUCS - Faculty</t>
+          <t>CUCS - Events</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anita HB</t>
+          <t>READ_ME.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUCS - Faculty</t>
+          <t>CUCS - Events</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rohini V</t>
+          <t>CUCS - All campus faculty as on 23 02 06.xls</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -710,7 +990,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ashok Immanuel V</t>
+          <t>Anita HB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,31 +1002,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>READ_ME.xlsx</t>
+          <t>Rohini V</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUCS - MoU_Consultancy</t>
+          <t>CUCS - Faculty</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sankara College - MoU edited 23 Jun.docx</t>
+          <t>Ashok Immanuel V</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUCS - MoU_Consultancy</t>
+          <t>CUCS - Faculty</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MOU with CHRIST University - Banglore.doc</t>
+          <t>READ_ME.xlsx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -758,7 +1038,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sankara College - MoU.docx</t>
+          <t>MOU - Internship - Template.docx</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -770,7 +1050,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sankara College - MoU.pdf</t>
+          <t>Infosys</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -782,7 +1062,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sankara College - Profile.docx</t>
+          <t>MOU - Idea Elan.pages</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -794,7 +1074,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOU - Internship - Template.docx</t>
+          <t>MoU - Internship - AICTE guidelines.pdf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -806,154 +1086,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MOU-Maistering India.pdf</t>
+          <t>READ_ME.xlsx</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUCS - MoU_Consultancy</t>
+          <t>CUCS - Research</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Infosys - DPA_Agreement_Schools_Collges_NGOs_Ver2.1.pdf</t>
+          <t>Readme.txt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Infosys - DPA_Agreement_Schools_Collges_NGOs_Ver2.1.docx</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Infosys</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MOU - Idea Elan.pages</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MOU - Internship - Apar Technologies - Bangalore.pdf</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MoU Kritter -- Internnship.pdf</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MoU Code Cognitive - Internship.pdf</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MoU Pirai Infotech - Internship.pdf</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MoU - Internship - AICTE guidelines.pdf</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CUCS - MoU_Consultancy</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>READ_ME.xlsx</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CUCS - Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Readme.txt</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CUCS - Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20220915_achs_rv_1.pdf</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
         <is>
           <t>CUCS - Research</t>
         </is>

--- a/categorized.xlsx
+++ b/categorized.xlsx
@@ -522,11 +522,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mou s</t>
+          <t>Book Chapter</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Book Chapter</t>
+          <t>Journal Publication-Indexed</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -552,11 +552,11 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journal Publication-Indexed</t>
+          <t>Mou s</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mou s</t>
+          <t>Book Chapter</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -602,11 +602,11 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Conference Session Chair</t>
+          <t>Conference Attended</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -622,11 +622,11 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Conference Attended</t>
+          <t>Conference Presentation</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -642,7 +642,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Book Chapter</t>
+          <t>Conference Session Chair</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -652,17 +652,17 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Patent Filed</t>
+          <t>Journal Publication-Indexed</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Journal Publication-Indexed</t>
+          <t>Journal Publication-Non Indexed</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -672,7 +672,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Seminar Organized</t>
+          <t>Mou s</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -682,7 +682,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Journal Publication-Non Indexed</t>
+          <t>Patent Filed</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -692,11 +692,11 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Conference Presentation</t>
+          <t>Seminar Organized</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
